--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_009/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_009/frequency_features.xlsx
@@ -532,40 +532,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B2" t="n">
-        <v>309.821989922642</v>
+        <v>320.7920350365381</v>
       </c>
       <c r="C2" t="n">
-        <v>1732.834901836803</v>
+        <v>3272.162023333826</v>
       </c>
       <c r="D2" t="n">
-        <v>8.363590091071711e-07</v>
+        <v>3.768961306043033e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003277619212135437</v>
+        <v>0.0006454533899514349</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84.8</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.058323625509346</v>
+        <v>-0.1739191239651836</v>
       </c>
       <c r="J2" t="n">
-        <v>2.023066013716632</v>
+        <v>0.6486730811319702</v>
       </c>
       <c r="K2" t="n">
-        <v>5.24631180834759</v>
+        <v>2.271080468476441</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6930397050844644</v>
+        <v>-1.098417687831171</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,54 +581,54 @@
         <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q2" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R2" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S2" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B3" t="n">
-        <v>163.5937900776764</v>
+        <v>348.2208745366399</v>
       </c>
       <c r="C3" t="n">
-        <v>659.2657079322142</v>
+        <v>3991.140491375093</v>
       </c>
       <c r="D3" t="n">
-        <v>6.572865030822574e-07</v>
+        <v>6.869100140541041e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0006481419890928376</v>
+        <v>0.001056700419240597</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>62.9</v>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3745186110185905</v>
+        <v>0.1429076084797739</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9884069314777355</v>
+        <v>0.9582753372320256</v>
       </c>
       <c r="K3" t="n">
-        <v>1.992675319101069</v>
+        <v>2.799615012674992</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.270282176815318</v>
+        <v>-1.642601297639344</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -644,16 +644,16 @@
         <v>9</v>
       </c>
       <c r="P3" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q3" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R3" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S3" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4">
@@ -661,37 +661,37 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>74.82727404141036</v>
+        <v>662.6785417140966</v>
       </c>
       <c r="C4" t="n">
-        <v>351.6430079692886</v>
+        <v>2524.91690942592</v>
       </c>
       <c r="D4" t="n">
-        <v>1.134325970851573e-07</v>
+        <v>2.630993606355931e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000262384697290266</v>
+        <v>0.0008451248151880295</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2781683049866557</v>
+        <v>-0.65096123940481</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3849998900861875</v>
+        <v>0.340308774398826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4141149249413823</v>
+        <v>0.4043294219004385</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.270467319261274</v>
+        <v>-1.390626437140504</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,54 +707,54 @@
         <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q4" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R4" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S4" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>104.2282110572327</v>
+        <v>457.7280765837647</v>
       </c>
       <c r="C5" t="n">
-        <v>630.5267954418059</v>
+        <v>5185.224205003874</v>
       </c>
       <c r="D5" t="n">
-        <v>4.188577439766888e-07</v>
+        <v>1.354464591956935e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001321228826050121</v>
+        <v>0.00442961311421834</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1994179447880861</v>
+        <v>-0.4496346528327748</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8374293538167233</v>
+        <v>0.8631034262164317</v>
       </c>
       <c r="K5" t="n">
-        <v>1.502095468124411</v>
+        <v>2.004706817940388</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.175756589776088</v>
+        <v>-2.643408428410771</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -770,54 +770,54 @@
         <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q5" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R5" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S5" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B6" t="n">
-        <v>322.6713305432013</v>
+        <v>514.734168083453</v>
       </c>
       <c r="C6" t="n">
-        <v>823.8141713753723</v>
+        <v>3266.473243886327</v>
       </c>
       <c r="D6" t="n">
-        <v>1.80594372045755e-07</v>
+        <v>3.220422258219568e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001924267603312148</v>
+        <v>0.0004548131128130484</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>9.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.19952167488179</v>
+        <v>-0.09681814186480062</v>
       </c>
       <c r="J6" t="n">
-        <v>1.002954093395421</v>
+        <v>1.028976231453661</v>
       </c>
       <c r="K6" t="n">
-        <v>2.988911232099933</v>
+        <v>3.676942741702483</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4440876392889879</v>
+        <v>-1.07974767219264</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>9</v>
       </c>
       <c r="P6" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q6" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R6" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S6" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7">
@@ -850,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>114.1558128448082</v>
+        <v>444.9210041186577</v>
       </c>
       <c r="C7" t="n">
-        <v>288.2215112270954</v>
+        <v>2524.73962034947</v>
       </c>
       <c r="D7" t="n">
-        <v>1.952042367847561e-07</v>
+        <v>3.571709736376956e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>8.607592731102744e-05</v>
+        <v>0.0003075822521483955</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4243710514676885</v>
+        <v>-0.4370540315507443</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2297994714677674</v>
+        <v>0.4890579231492806</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04035155355924793</v>
+        <v>1.969123857990274</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.049995701138541</v>
+        <v>-1.14563069605136</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -896,16 +896,16 @@
         <v>9</v>
       </c>
       <c r="P7" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q7" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R7" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S7" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8">
@@ -913,37 +913,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>73.31698677050188</v>
+        <v>633.1747259821941</v>
       </c>
       <c r="C8" t="n">
-        <v>237.300331912993</v>
+        <v>5607.634531305753</v>
       </c>
       <c r="D8" t="n">
-        <v>6.004238404674819e-08</v>
+        <v>3.513648055147891e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>5.899177238662871e-05</v>
+        <v>0.0005046610351216149</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2725538541654345</v>
+        <v>0.6219791021436091</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2440320382882451</v>
+        <v>1.266636460358526</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2204690864046075</v>
+        <v>5.294551094255855</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.8448273820458084</v>
+        <v>-0.581326327780707</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -959,54 +959,54 @@
         <v>9</v>
       </c>
       <c r="P8" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q8" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R8" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S8" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>129.1844322235634</v>
+        <v>623.0250328674899</v>
       </c>
       <c r="C9" t="n">
-        <v>636.962948391464</v>
+        <v>5029.804738729435</v>
       </c>
       <c r="D9" t="n">
-        <v>5.847016338173999e-07</v>
+        <v>8.226833534869721e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003504140570516161</v>
+        <v>0.0007997028230161711</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>36.8</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3033599535048443</v>
+        <v>0.612008873150776</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8975557123864191</v>
+        <v>1.141597280033922</v>
       </c>
       <c r="K9" t="n">
-        <v>2.128743049818256</v>
+        <v>3.477106379183752</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.7690660145378571</v>
+        <v>-1.14101007296951</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1022,54 +1022,54 @@
         <v>9</v>
       </c>
       <c r="P9" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q9" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R9" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S9" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B10" t="n">
-        <v>117.408931003172</v>
+        <v>440.3350143232688</v>
       </c>
       <c r="C10" t="n">
-        <v>487.5869669745102</v>
+        <v>3510.452542755003</v>
       </c>
       <c r="D10" t="n">
-        <v>5.400803782853923e-07</v>
+        <v>1.704209835550692e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001975834937666491</v>
+        <v>0.0004081597130324356</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1711958131552766</v>
+        <v>-0.2729590142706022</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7411902943387972</v>
+        <v>0.8621756632010004</v>
       </c>
       <c r="K10" t="n">
-        <v>1.691053995290867</v>
+        <v>1.973435054155327</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.367135357543455</v>
+        <v>-1.324998137230976</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1085,54 +1085,54 @@
         <v>9</v>
       </c>
       <c r="P10" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q10" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R10" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S10" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.03929273084479371</v>
       </c>
       <c r="B11" t="n">
-        <v>264.1763240432621</v>
+        <v>283.0542952628186</v>
       </c>
       <c r="C11" t="n">
-        <v>914.2752609292726</v>
+        <v>3885.839921895658</v>
       </c>
       <c r="D11" t="n">
-        <v>1.520267541855473e-07</v>
+        <v>6.525606750882726e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002160860676366677</v>
+        <v>0.0008514309732412472</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9820681191199335</v>
+        <v>0.2421094410379101</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14683453507152</v>
+        <v>0.7406459040299495</v>
       </c>
       <c r="K11" t="n">
-        <v>3.414894907893883</v>
+        <v>2.185811566222707</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.9280361681815205</v>
+        <v>-1.142891770418274</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>9</v>
       </c>
       <c r="P11" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q11" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R11" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S11" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>90.07524978477095</v>
+        <v>482.8269273465227</v>
       </c>
       <c r="C12" t="n">
-        <v>637.496238892661</v>
+        <v>4662.508002825521</v>
       </c>
       <c r="D12" t="n">
-        <v>6.466625950715911e-06</v>
+        <v>2.665185709449555e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003445086973524666</v>
+        <v>0.006483089910010146</v>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03631605112092389</v>
+        <v>0.4742897125211422</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7970194986319163</v>
+        <v>0.9737246801549839</v>
       </c>
       <c r="K12" t="n">
-        <v>1.835893590894632</v>
+        <v>3.39250901197172</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.537572830053545</v>
+        <v>-1.340193793630851</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1211,54 +1211,54 @@
         <v>9</v>
       </c>
       <c r="P12" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q12" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R12" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S12" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B13" t="n">
-        <v>46.18706017580673</v>
+        <v>306.5422810824659</v>
       </c>
       <c r="C13" t="n">
-        <v>290.1946564247388</v>
+        <v>2752.860791692905</v>
       </c>
       <c r="D13" t="n">
-        <v>4.410629876552606e-07</v>
+        <v>3.118321003499552e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>6.139723690705086e-05</v>
+        <v>0.0002314711545208328</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.171699108460248</v>
+        <v>-0.2252800028364839</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3518637591769984</v>
+        <v>0.7343167880693073</v>
       </c>
       <c r="K13" t="n">
-        <v>1.034046009133555</v>
+        <v>3.129596701317875</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.5828840331767147</v>
+        <v>-0.9784073979685868</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1274,54 +1274,54 @@
         <v>9</v>
       </c>
       <c r="P13" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q13" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R13" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S13" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B14" t="n">
-        <v>217.762314488218</v>
+        <v>340.6889088476019</v>
       </c>
       <c r="C14" t="n">
-        <v>411.4963460423778</v>
+        <v>3381.3951513592</v>
       </c>
       <c r="D14" t="n">
-        <v>3.382647395480781e-07</v>
+        <v>3.769249255655261e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002321050952605805</v>
+        <v>0.000732418197683841</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8095253326699551</v>
+        <v>0.0008157019340878692</v>
       </c>
       <c r="J14" t="n">
-        <v>0.247020817502852</v>
+        <v>0.8295520098038912</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.4045938280455355</v>
+        <v>2.517268848387447</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.495674830274018</v>
+        <v>-1.251113586565451</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1337,16 +1337,16 @@
         <v>9</v>
       </c>
       <c r="P14" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q14" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R14" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S14" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15">
@@ -1354,37 +1354,37 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>80.11059839536208</v>
+        <v>401.2742038539618</v>
       </c>
       <c r="C15" t="n">
-        <v>400.221603179855</v>
+        <v>4143.219882632586</v>
       </c>
       <c r="D15" t="n">
-        <v>2.016150644478953e-07</v>
+        <v>4.264485354118019e-08</v>
       </c>
       <c r="E15" t="n">
-        <v>9.022072831979579e-05</v>
+        <v>0.0004022642725318396</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2978089159678888</v>
+        <v>0.3941789821748151</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4504654971085478</v>
+        <v>1.064861290426454</v>
       </c>
       <c r="K15" t="n">
-        <v>1.83044249730309</v>
+        <v>3.98303304953899</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.5520871369601369</v>
+        <v>-0.7724893466783492</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1400,54 +1400,54 @@
         <v>9</v>
       </c>
       <c r="P15" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q15" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R15" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S15" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B16" t="n">
-        <v>163.1569706239774</v>
+        <v>414.8632284833646</v>
       </c>
       <c r="C16" t="n">
-        <v>797.1986259576812</v>
+        <v>3382.119947022226</v>
       </c>
       <c r="D16" t="n">
-        <v>1.112026529858811e-07</v>
+        <v>3.068796963286172e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>8.990675102209451e-05</v>
+        <v>0.000203340883463464</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>9.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04987666097030459</v>
+        <v>-0.07532966559917768</v>
       </c>
       <c r="J16" t="n">
-        <v>1.140916223124412</v>
+        <v>0.9583449914306236</v>
       </c>
       <c r="K16" t="n">
-        <v>2.502029960423431</v>
+        <v>2.208773712511881</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.205543686382784</v>
+        <v>-1.548697732109313</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1463,54 +1463,54 @@
         <v>9</v>
       </c>
       <c r="P16" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q16" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R16" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S16" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>157.5634420896747</v>
+        <v>994.7163625515382</v>
       </c>
       <c r="C17" t="n">
-        <v>475.1125436590846</v>
+        <v>4552.326364680393</v>
       </c>
       <c r="D17" t="n">
-        <v>3.53814818033899e-07</v>
+        <v>8.691303055037313e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>8.248367553771897e-05</v>
+        <v>0.0002319377084474416</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2504819789251442</v>
+        <v>0.9771280575162457</v>
       </c>
       <c r="J17" t="n">
-        <v>0.887277504928923</v>
+        <v>0.8899389170257143</v>
       </c>
       <c r="K17" t="n">
-        <v>2.0506785992168</v>
+        <v>2.747004668618224</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.7907103076801727</v>
+        <v>-1.060410728197592</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1526,54 +1526,54 @@
         <v>9</v>
       </c>
       <c r="P17" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q17" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R17" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S17" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B18" t="n">
-        <v>115.4711808844639</v>
+        <v>409.144279231644</v>
       </c>
       <c r="C18" t="n">
-        <v>498.1103778687605</v>
+        <v>3944.507230135488</v>
       </c>
       <c r="D18" t="n">
-        <v>1.797378558162387e-07</v>
+        <v>1.366179544291e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0002663748406967496</v>
+        <v>0.0006698907585892806</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.03742958670060917</v>
+        <v>-0.03800169725320904</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8047860480603304</v>
+        <v>1.011746393087153</v>
       </c>
       <c r="K18" t="n">
-        <v>1.822248186270865</v>
+        <v>2.872396342849276</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.665947932184601</v>
+        <v>-1.560413585589194</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1589,16 +1589,16 @@
         <v>9</v>
       </c>
       <c r="P18" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q18" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R18" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S18" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19">
@@ -1606,37 +1606,37 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>95.9361455929151</v>
+        <v>702.8054931285095</v>
       </c>
       <c r="C19" t="n">
-        <v>226.7556925434411</v>
+        <v>4926.429899065121</v>
       </c>
       <c r="D19" t="n">
-        <v>8.963797725099592e-08</v>
+        <v>3.562089216369047e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>8.209617506944045e-05</v>
+        <v>0.0003541347720973154</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3566399464420636</v>
+        <v>0.6903786769435259</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1716103822430674</v>
+        <v>1.233655359396033</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.03874672086830033</v>
+        <v>3.630871935086135</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.7829082803980695</v>
+        <v>-0.9655828325307778</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1652,54 +1652,54 @@
         <v>9</v>
       </c>
       <c r="P19" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q19" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R19" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S19" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B20" t="n">
-        <v>208.6075882485053</v>
+        <v>483.9414365027829</v>
       </c>
       <c r="C20" t="n">
-        <v>298.0622165251556</v>
+        <v>3807.145154639315</v>
       </c>
       <c r="D20" t="n">
-        <v>1.034749832565364e-07</v>
+        <v>1.239201558747841e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>6.430306802618325e-05</v>
+        <v>0.0002763029918200968</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7754928931171198</v>
+        <v>0.1255694757188132</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1243069445853251</v>
+        <v>1.025697269085991</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.4589621746311657</v>
+        <v>3.38763420864188</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.03497597774136</v>
+        <v>-1.392664635001273</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1715,54 +1715,54 @@
         <v>9</v>
       </c>
       <c r="P20" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q20" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R20" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S20" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B21" t="n">
-        <v>86.89033206128002</v>
+        <v>516.6265876395715</v>
       </c>
       <c r="C21" t="n">
-        <v>420.0614608286283</v>
+        <v>3628.217911536517</v>
       </c>
       <c r="D21" t="n">
-        <v>6.998932397717253e-08</v>
+        <v>1.796060095883018e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>6.465698268870419e-05</v>
+        <v>0.0003255733260559952</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>45.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.3230123868449074</v>
+        <v>0.4623862040357112</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5923080552030352</v>
+        <v>0.934047710852243</v>
       </c>
       <c r="K21" t="n">
-        <v>1.079255444983919</v>
+        <v>2.879731008717483</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.002059541312444</v>
+        <v>-1.157893123074772</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1778,16 +1778,16 @@
         <v>9</v>
       </c>
       <c r="P21" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q21" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R21" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S21" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="22">
@@ -1795,37 +1795,37 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>338.4552811361792</v>
+        <v>464.9381814606642</v>
       </c>
       <c r="C22" t="n">
-        <v>990.094012068799</v>
+        <v>2205.35380936898</v>
       </c>
       <c r="D22" t="n">
-        <v>7.741935367426934e-07</v>
+        <v>6.516721570132696e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0003358925246741682</v>
+        <v>0.0001849019658073571</v>
       </c>
       <c r="F22" t="n">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.258198071138213</v>
+        <v>-0.4567172705900434</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8834287946298416</v>
+        <v>0.2904943104400511</v>
       </c>
       <c r="K22" t="n">
-        <v>3.131485053499832</v>
+        <v>0.3474947368547002</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.1672803014235083</v>
+        <v>-1.388155445778089</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1841,54 +1841,54 @@
         <v>9</v>
       </c>
       <c r="P22" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q22" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R22" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S22" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>75.03964410772869</v>
+        <v>509.6547717202857</v>
       </c>
       <c r="C23" t="n">
-        <v>555.511524136631</v>
+        <v>4857.398956169312</v>
       </c>
       <c r="D23" t="n">
-        <v>9.33611612765016e-07</v>
+        <v>1.561997763875429e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0004736586439427373</v>
+        <v>0.001433408820373</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07056922001071075</v>
+        <v>0.5006431942242492</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6390238330494949</v>
+        <v>1.038242024598634</v>
       </c>
       <c r="K23" t="n">
-        <v>1.269714830912396</v>
+        <v>4.364367953440174</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.9803242066708199</v>
+        <v>-1.360632075388615</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1904,54 +1904,54 @@
         <v>9</v>
       </c>
       <c r="P23" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q23" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R23" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S23" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>83.2780629857904</v>
+        <v>649.2301072381251</v>
       </c>
       <c r="C24" t="n">
-        <v>445.0000901712558</v>
+        <v>4363.120523269132</v>
       </c>
       <c r="D24" t="n">
-        <v>1.848609273255456e-06</v>
+        <v>1.309121120786661e-07</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002018857304228278</v>
+        <v>0.0005982564015768676</v>
       </c>
       <c r="F24" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02111926640785905</v>
+        <v>-0.6377505965011052</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6683946599993916</v>
+        <v>0.6470412645125889</v>
       </c>
       <c r="K24" t="n">
-        <v>2.170513417659568</v>
+        <v>1.772372477158142</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.099080891309588</v>
+        <v>-1.654529313507791</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1967,54 +1967,54 @@
         <v>9</v>
       </c>
       <c r="P24" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q24" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R24" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S24" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>88.87353381610566</v>
+        <v>467.7648080871737</v>
       </c>
       <c r="C25" t="n">
-        <v>465.8705405091586</v>
+        <v>4380.673150568393</v>
       </c>
       <c r="D25" t="n">
-        <v>1.020422104284002e-07</v>
+        <v>1.688520261454564e-07</v>
       </c>
       <c r="E25" t="n">
-        <v>7.680592083069061e-05</v>
+        <v>0.0002483289707390377</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.04160930132653833</v>
+        <v>0.4594939175708975</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7114430760744408</v>
+        <v>0.8016693005346254</v>
       </c>
       <c r="K25" t="n">
-        <v>2.138573338793945</v>
+        <v>2.677054346863187</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.7378190119298309</v>
+        <v>-0.8396417435608228</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2030,54 +2030,54 @@
         <v>9</v>
       </c>
       <c r="P25" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q25" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R25" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S25" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B26" t="n">
-        <v>355.727956367575</v>
+        <v>312.2575602014222</v>
       </c>
       <c r="C26" t="n">
-        <v>1687.799424707649</v>
+        <v>4353.318512654042</v>
       </c>
       <c r="D26" t="n">
-        <v>3.731885704067821e-07</v>
+        <v>6.680237869927839e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003115792686359828</v>
+        <v>0.001020247493446251</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.154064174792092</v>
+        <v>-0.03592739964323146</v>
       </c>
       <c r="J26" t="n">
-        <v>2.233288418875544</v>
+        <v>0.8395295605542626</v>
       </c>
       <c r="K26" t="n">
-        <v>5.003162198210398</v>
+        <v>3.450079198595211</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.7173032832187285</v>
+        <v>-0.9196782619646553</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2093,16 +2093,16 @@
         <v>9</v>
       </c>
       <c r="P26" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q26" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R26" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S26" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="27">
@@ -2110,37 +2110,37 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>148.9330178885793</v>
+        <v>613.9744039661092</v>
       </c>
       <c r="C27" t="n">
-        <v>385.7405676613862</v>
+        <v>1988.660566105153</v>
       </c>
       <c r="D27" t="n">
-        <v>3.024805668663796e-07</v>
+        <v>3.660260122367714e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003310974879824038</v>
+        <v>0.0008584011662722815</v>
       </c>
       <c r="F27" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.5536543415932319</v>
+        <v>-0.6031182750158243</v>
       </c>
       <c r="J27" t="n">
-        <v>0.268171260057533</v>
+        <v>0.2822107520538477</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09195924330724817</v>
+        <v>0.09496932292240612</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.168706212771478</v>
+        <v>-1.472022062773771</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2156,54 +2156,54 @@
         <v>9</v>
       </c>
       <c r="P27" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q27" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R27" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S27" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B28" t="n">
-        <v>193.8113474887019</v>
+        <v>326.8356257455416</v>
       </c>
       <c r="C28" t="n">
-        <v>930.02994604739</v>
+        <v>3394.070583986643</v>
       </c>
       <c r="D28" t="n">
-        <v>3.561039883260692e-07</v>
+        <v>4.763863232268552e-08</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0003798526055437892</v>
+        <v>0.0009024148600192776</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7204882806271445</v>
+        <v>-0.2368773225473984</v>
       </c>
       <c r="J28" t="n">
-        <v>1.082357838261074</v>
+        <v>0.7686492706936869</v>
       </c>
       <c r="K28" t="n">
-        <v>3.959637028130828</v>
+        <v>3.185347591772552</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.7267102672769897</v>
+        <v>-1.487734898401651</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2219,54 +2219,54 @@
         <v>9</v>
       </c>
       <c r="P28" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q28" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R28" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S28" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B29" t="n">
-        <v>141.9531426688754</v>
+        <v>282.2159210903246</v>
       </c>
       <c r="C29" t="n">
-        <v>736.6992150730449</v>
+        <v>6293.856794235401</v>
       </c>
       <c r="D29" t="n">
-        <v>8.488084040980413e-07</v>
+        <v>7.05852050913111e-08</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0007103556173867847</v>
+        <v>0.001682389108302521</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3113135996189124</v>
+        <v>0.1592279231105425</v>
       </c>
       <c r="J29" t="n">
-        <v>1.019858107660321</v>
+        <v>0.8696002732442547</v>
       </c>
       <c r="K29" t="n">
-        <v>3.750621180274754</v>
+        <v>6.365581670810772</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.706887753210575</v>
+        <v>-0.8441201393434885</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>9</v>
       </c>
       <c r="P29" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q29" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R29" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S29" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="30">
@@ -2299,37 +2299,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>136.3698536006167</v>
+        <v>599.5480658994326</v>
       </c>
       <c r="C30" t="n">
-        <v>442.8744951086289</v>
+        <v>3050.17667986049</v>
       </c>
       <c r="D30" t="n">
-        <v>1.018510951934457e-06</v>
+        <v>2.198072500159913e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0007771131336797225</v>
+        <v>0.00138127404723641</v>
       </c>
       <c r="F30" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5069511286268279</v>
+        <v>-0.5889470195475762</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3982587510983128</v>
+        <v>0.3633960871113635</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5701527058791819</v>
+        <v>0.6849623724001322</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.452291296615138</v>
+        <v>-1.669630515338162</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2345,54 +2345,54 @@
         <v>9</v>
       </c>
       <c r="P30" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q30" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R30" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S30" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.07434944237918215</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>112.8942463254172</v>
+        <v>346.1869820670618</v>
       </c>
       <c r="C31" t="n">
-        <v>525.27815375431</v>
+        <v>3466.852021198391</v>
       </c>
       <c r="D31" t="n">
-        <v>3.900264363156864e-07</v>
+        <v>1.112408814095018e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000314200141970233</v>
+        <v>0.001055688450676381</v>
       </c>
       <c r="F31" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1028233229577931</v>
+        <v>-0.3400657977083121</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8211882514768468</v>
+        <v>0.812891775266869</v>
       </c>
       <c r="K31" t="n">
-        <v>1.885959042332649</v>
+        <v>2.358779928617686</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.441886169219302</v>
+        <v>-1.754228702447456</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2408,16 +2408,16 @@
         <v>9</v>
       </c>
       <c r="P31" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q31" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R31" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S31" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="32">
@@ -2425,37 +2425,37 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>71.08946500665972</v>
+        <v>349.3610565749465</v>
       </c>
       <c r="C32" t="n">
-        <v>348.696666545985</v>
+        <v>2176.125782544109</v>
       </c>
       <c r="D32" t="n">
-        <v>1.831654888628399e-06</v>
+        <v>7.322836232147586e-08</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0008905816690753855</v>
+        <v>0.001698478355089215</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2642731041139767</v>
+        <v>-0.343183749091303</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2827039333256092</v>
+        <v>0.3114406963291716</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3579898331763599</v>
+        <v>0.5293297406495434</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.833689611055801</v>
+        <v>-1.386404999882123</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2471,54 +2471,54 @@
         <v>9</v>
       </c>
       <c r="P32" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q32" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R32" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S32" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.07434944237918215</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>55.69335618673934</v>
+        <v>545.0854705608594</v>
       </c>
       <c r="C33" t="n">
-        <v>405.2814857017508</v>
+        <v>2864.540622439962</v>
       </c>
       <c r="D33" t="n">
-        <v>1.135003011715278e-06</v>
+        <v>5.372740860347945e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0006724651414730276</v>
+        <v>0.001485571080996488</v>
       </c>
       <c r="F33" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05473041427751741</v>
+        <v>-0.5354474170538894</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4571640444422189</v>
+        <v>0.4727803840924631</v>
       </c>
       <c r="K33" t="n">
-        <v>1.259088145284777</v>
+        <v>1.185790300291765</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.7997774919277681</v>
+        <v>-1.445568663319337</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>9</v>
       </c>
       <c r="P33" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q33" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R33" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S33" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>72.61421019864467</v>
+        <v>460.4381194926209</v>
       </c>
       <c r="C34" t="n">
-        <v>471.0305541495424</v>
+        <v>3230.531887887963</v>
       </c>
       <c r="D34" t="n">
-        <v>2.14473107024393e-06</v>
+        <v>2.369882867309985e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0005584004163175965</v>
+        <v>0.000650280201991635</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>75.7</v>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.2421616178520623</v>
+        <v>-0.4522967774976629</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5555924740186806</v>
+        <v>0.698175070376326</v>
       </c>
       <c r="K34" t="n">
-        <v>1.097806715093204</v>
+        <v>1.26161444031757</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.013362669802071</v>
+        <v>-1.39050927084948</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2597,16 +2597,16 @@
         <v>9</v>
       </c>
       <c r="P34" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q34" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R34" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S34" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35">
@@ -2614,37 +2614,37 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>97.60060163951108</v>
+        <v>327.5569062213303</v>
       </c>
       <c r="C35" t="n">
-        <v>631.4823604173172</v>
+        <v>3226.099826487162</v>
       </c>
       <c r="D35" t="n">
-        <v>1.451677506735471e-06</v>
+        <v>4.117762513482605e-08</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0005733142952930774</v>
+        <v>0.0005707556803238137</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>75.7</v>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3628275153885171</v>
+        <v>-0.3217651338127016</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6523596883448267</v>
+        <v>0.7158132988967236</v>
       </c>
       <c r="K35" t="n">
-        <v>1.425101197708507</v>
+        <v>1.702070570960876</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.206704815348878</v>
+        <v>-1.35134101607387</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2660,54 +2660,54 @@
         <v>9</v>
       </c>
       <c r="P35" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q35" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R35" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S35" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>156.4884414683983</v>
+        <v>688.1552147906525</v>
       </c>
       <c r="C36" t="n">
-        <v>630.6640673523351</v>
+        <v>4509.076346420203</v>
       </c>
       <c r="D36" t="n">
-        <v>2.159650008603335e-07</v>
+        <v>4.778090736894852e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0003846715912997543</v>
+        <v>0.00112557108927358</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>8.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1564189515218711</v>
+        <v>0.6759874408552577</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9690340475903237</v>
+        <v>1.108071023304043</v>
       </c>
       <c r="K36" t="n">
-        <v>2.895323431178711</v>
+        <v>4.167579476065698</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.181265135551254</v>
+        <v>-0.93789275156986</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2723,54 +2723,54 @@
         <v>9</v>
       </c>
       <c r="P36" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q36" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R36" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S36" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>41.91235729832665</v>
+        <v>447.6133881798018</v>
       </c>
       <c r="C37" t="n">
-        <v>392.028785874041</v>
+        <v>3731.461891498739</v>
       </c>
       <c r="D37" t="n">
-        <v>1.484138683071144e-07</v>
+        <v>1.208601184685933e-08</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000297534886700628</v>
+        <v>0.001096320987394378</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04689219452998071</v>
+        <v>0.439698809606878</v>
       </c>
       <c r="J37" t="n">
-        <v>0.448339239316364</v>
+        <v>0.7717134453491119</v>
       </c>
       <c r="K37" t="n">
-        <v>0.99497688751189</v>
+        <v>2.44082637650099</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.202625436947406</v>
+        <v>-0.9926253399584335</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2786,54 +2786,54 @@
         <v>9</v>
       </c>
       <c r="P37" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q37" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R37" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S37" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B38" t="n">
-        <v>88.08328156465274</v>
+        <v>241.082321771174</v>
       </c>
       <c r="C38" t="n">
-        <v>218.7384007785306</v>
+        <v>2465.533880402596</v>
       </c>
       <c r="D38" t="n">
-        <v>3.510138458338971e-07</v>
+        <v>6.073907228937689e-08</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001800588319263388</v>
+        <v>0.000585728637056408</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3</v>
+        <v>16.3</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.3274471433630212</v>
+        <v>0.007489607073784713</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1576872596531633</v>
+        <v>0.5326717005512959</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.03999504344226375</v>
+        <v>2.05121999245311</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.745335519836878</v>
+        <v>-0.9201950095436264</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2849,16 +2849,16 @@
         <v>9</v>
       </c>
       <c r="P38" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q38" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R38" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S38" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="39">
@@ -2866,37 +2866,37 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>106.257002956856</v>
+        <v>322.1076009903229</v>
       </c>
       <c r="C39" t="n">
-        <v>575.048740144924</v>
+        <v>4213.382819216156</v>
       </c>
       <c r="D39" t="n">
-        <v>2.500853341423895e-07</v>
+        <v>1.644441915190052e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001081498276341994</v>
+        <v>0.003057802129692705</v>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v>3.7</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.3950074459362677</v>
+        <v>-0.3164121817193741</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4647393025257441</v>
+        <v>0.7288966993156174</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8029225658875421</v>
+        <v>1.586038401938987</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.383627132493678</v>
+        <v>-1.767153970293059</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2912,54 +2912,54 @@
         <v>9</v>
       </c>
       <c r="P39" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q39" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R39" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S39" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.07434944237918215</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>16.06362696794252</v>
+        <v>306.8626906779175</v>
       </c>
       <c r="C40" t="n">
-        <v>201.0491251884566</v>
+        <v>2315.390844480371</v>
       </c>
       <c r="D40" t="n">
-        <v>3.228385434384076e-07</v>
+        <v>2.158880479567867e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0002755315335384742</v>
+        <v>0.000820582934540361</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03480979122497165</v>
+        <v>-0.301436827777915</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2142428638943434</v>
+        <v>0.4152596085673568</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6043937927670714</v>
+        <v>1.171852955093549</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.4584717212758924</v>
+        <v>-0.9383981985064499</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2975,54 +2975,54 @@
         <v>9</v>
       </c>
       <c r="P40" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q40" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R40" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S40" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B41" t="n">
-        <v>64.15579750735991</v>
+        <v>428.2724292666146</v>
       </c>
       <c r="C41" t="n">
-        <v>476.1414448326558</v>
+        <v>4532.650134589363</v>
       </c>
       <c r="D41" t="n">
-        <v>4.515706070391805e-07</v>
+        <v>9.282592323560403e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0007258400164916979</v>
+        <v>0.002050588895665797</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2384973885031966</v>
+        <v>0.2405439661015222</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5463370579918518</v>
+        <v>1.008380963276464</v>
       </c>
       <c r="K41" t="n">
-        <v>1.907241915362094</v>
+        <v>3.125392120981236</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.6673244845248341</v>
+        <v>-1.49334902750098</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3038,54 +3038,54 @@
         <v>9</v>
       </c>
       <c r="P41" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q41" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R41" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S41" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>93.82387426174347</v>
+        <v>400.9795100862736</v>
       </c>
       <c r="C42" t="n">
-        <v>462.5287184687956</v>
+        <v>3498.035553608007</v>
       </c>
       <c r="D42" t="n">
-        <v>2.696739571445332e-07</v>
+        <v>3.280570680343775e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0004085809383409131</v>
+        <v>0.001999913880818919</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1299909010526626</v>
+        <v>-0.3938894991024298</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6625923945814735</v>
+        <v>0.68301127104784</v>
       </c>
       <c r="K42" t="n">
-        <v>2.072220849057709</v>
+        <v>2.34464630180622</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.032562013595369</v>
+        <v>-1.629032468236723</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3101,54 +3101,54 @@
         <v>9</v>
       </c>
       <c r="P42" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q42" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R42" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S42" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B43" t="n">
-        <v>48.3065493092641</v>
+        <v>284.0495575580716</v>
       </c>
       <c r="C43" t="n">
-        <v>361.5193112978772</v>
+        <v>3721.732879516255</v>
       </c>
       <c r="D43" t="n">
-        <v>1.753345218253033e-06</v>
+        <v>2.615555865449148e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0006420119845530245</v>
+        <v>0.002027778701790712</v>
       </c>
       <c r="F43" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1795782502203126</v>
+        <v>0.04756527497792221</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3398176819447178</v>
+        <v>0.7538009463671955</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5422959864893003</v>
+        <v>1.910664638836217</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.9320494515103052</v>
+        <v>-1.521856155582075</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3164,54 +3164,54 @@
         <v>9</v>
       </c>
       <c r="P43" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q43" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R43" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S43" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>54.14923782946459</v>
+        <v>153.2263860420094</v>
       </c>
       <c r="C44" t="n">
-        <v>337.4350296839949</v>
+        <v>2491.716748317944</v>
       </c>
       <c r="D44" t="n">
-        <v>1.342545433978988e-06</v>
+        <v>9.534056325230096e-08</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0007911360696945605</v>
+        <v>0.001594435863197324</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G44" t="n">
         <v>2.8</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04558000565151803</v>
+        <v>-0.1505170786267283</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4125248013362541</v>
+        <v>0.4134063099895965</v>
       </c>
       <c r="K44" t="n">
-        <v>1.160305002712267</v>
+        <v>1.34730599931158</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.8287778420806299</v>
+        <v>-1.034376124833224</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3227,54 +3227,54 @@
         <v>9</v>
       </c>
       <c r="P44" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q44" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R44" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S44" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B45" t="n">
-        <v>65.58779225601879</v>
+        <v>610.4388165516986</v>
       </c>
       <c r="C45" t="n">
-        <v>263.951702764984</v>
+        <v>4300.253495293387</v>
       </c>
       <c r="D45" t="n">
-        <v>1.148515348875566e-07</v>
+        <v>1.052004621792894e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0005798126684923674</v>
+        <v>0.002019224028028686</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9</v>
+        <v>23.6</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.2438207890558319</v>
+        <v>0.3980514480722631</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2098747269770874</v>
+        <v>1.255862002311547</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2524790860789532</v>
+        <v>4.870826004355192</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.7291789493036845</v>
+        <v>-1.078933234742292</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3290,54 +3290,54 @@
         <v>9</v>
       </c>
       <c r="P45" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q45" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R45" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S45" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B46" t="n">
-        <v>117.1198751661379</v>
+        <v>259.9114059340122</v>
       </c>
       <c r="C46" t="n">
-        <v>649.3432950294134</v>
+        <v>3169.412751921582</v>
       </c>
       <c r="D46" t="n">
-        <v>3.546978328369863e-06</v>
+        <v>1.0491525830196e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0008591753532284361</v>
+        <v>0.001718959604308657</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="G46" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0.236293565171181</v>
+        <v>-0.2430768861243529</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7690005502460555</v>
+        <v>0.6440011585091058</v>
       </c>
       <c r="K46" t="n">
-        <v>2.068907474909079</v>
+        <v>2.7435300569372</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.141166919794489</v>
+        <v>-1.164870614010114</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3353,54 +3353,54 @@
         <v>9</v>
       </c>
       <c r="P46" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q46" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R46" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S46" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.03717472118959107</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>63.91519889185807</v>
+        <v>297.7433804581337</v>
       </c>
       <c r="C47" t="n">
-        <v>617.4687685741203</v>
+        <v>3541.442989139986</v>
       </c>
       <c r="D47" t="n">
-        <v>1.92434644707605e-06</v>
+        <v>3.014188558170839e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001010794102074375</v>
+        <v>0.00270686297410917</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>81.7</v>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1947771732962538</v>
+        <v>-0.2924787627290115</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6443600321458681</v>
+        <v>0.6237077415843343</v>
       </c>
       <c r="K47" t="n">
-        <v>2.33566450103979</v>
+        <v>2.499867231556158</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.8678652087600784</v>
+        <v>-1.545803830848643</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3416,16 +3416,16 @@
         <v>9</v>
       </c>
       <c r="P47" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q47" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R47" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S47" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="48">
@@ -3433,37 +3433,37 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>59.07015772512393</v>
+        <v>311.1068145405428</v>
       </c>
       <c r="C48" t="n">
-        <v>551.8582332770928</v>
+        <v>4121.980655008372</v>
       </c>
       <c r="D48" t="n">
-        <v>1.673304677756108e-06</v>
+        <v>4.494071010985312e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002629284917193433</v>
+        <v>0.01281361947571817</v>
       </c>
       <c r="F48" t="n">
-        <v>11.9</v>
+        <v>1.6</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.2195916644056652</v>
+        <v>-0.3056059081930676</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4640220320925798</v>
+        <v>0.5694912800667756</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8661843856089555</v>
+        <v>1.3930532430204</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.234342207556</v>
+        <v>-1.537597225299162</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3479,54 +3479,54 @@
         <v>9</v>
       </c>
       <c r="P48" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q48" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R48" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S48" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1115241635687732</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>63.08331664068223</v>
+        <v>194.8171321847193</v>
       </c>
       <c r="C49" t="n">
-        <v>636.57585688796</v>
+        <v>3523.3272939347</v>
       </c>
       <c r="D49" t="n">
-        <v>3.57358951415464e-07</v>
+        <v>5.464957743003954e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001432172961290623</v>
+        <v>0.007236675691191657</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2113644740406622</v>
+        <v>-0.1913724284722194</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6679665866135129</v>
+        <v>0.5737133604343072</v>
       </c>
       <c r="K49" t="n">
-        <v>2.125620794850429</v>
+        <v>1.834273641221667</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.8133267810117065</v>
+        <v>-1.354130676707488</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3542,54 +3542,54 @@
         <v>9</v>
       </c>
       <c r="P49" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q49" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R49" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S49" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B50" t="n">
-        <v>253.2849574814361</v>
+        <v>355.7619541080605</v>
       </c>
       <c r="C50" t="n">
-        <v>880.0974533157879</v>
+        <v>3561.892412817914</v>
       </c>
       <c r="D50" t="n">
-        <v>2.215993990822442e-07</v>
+        <v>7.186048175466748e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001149565452641864</v>
+        <v>0.004362473398479872</v>
       </c>
       <c r="F50" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9415797675889818</v>
+        <v>0.2202992800215449</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8109073635265166</v>
+        <v>0.7463641403245366</v>
       </c>
       <c r="K50" t="n">
-        <v>2.908337973053674</v>
+        <v>2.568909773043204</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.3431600311563054</v>
+        <v>-0.9453560945695615</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3605,16 +3605,16 @@
         <v>9</v>
       </c>
       <c r="P50" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q50" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R50" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S50" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="51">
@@ -3622,37 +3622,37 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>72.60544300309004</v>
+        <v>732.2068246359011</v>
       </c>
       <c r="C51" t="n">
-        <v>423.2085012983005</v>
+        <v>4294.079182332014</v>
       </c>
       <c r="D51" t="n">
-        <v>2.052259979689477e-07</v>
+        <v>2.122041227980975e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0005566127251575232</v>
+        <v>0.00234692089968468</v>
       </c>
       <c r="F51" t="n">
-        <v>2.2</v>
+        <v>19.4</v>
       </c>
       <c r="G51" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.2699087100486621</v>
+        <v>0.7192601420784881</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3662289990741042</v>
+        <v>0.905223684938783</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4833132351726288</v>
+        <v>2.912642420020048</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.043240767122472</v>
+        <v>-0.8052719263791377</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3668,54 +3668,54 @@
         <v>9</v>
       </c>
       <c r="P51" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q51" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R51" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S51" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B52" t="n">
-        <v>50.75521763054484</v>
+        <v>753.974168550072</v>
       </c>
       <c r="C52" t="n">
-        <v>429.592824231755</v>
+        <v>6216.271457710171</v>
       </c>
       <c r="D52" t="n">
-        <v>1.255112406275597e-06</v>
+        <v>3.544081148220079e-08</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0009727790436421954</v>
+        <v>0.002429539330776283</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>6.9</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.1886811064332521</v>
+        <v>0.5457554155349743</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4264373662200906</v>
+        <v>1.388135951770795</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8702984724988724</v>
+        <v>5.19718105512657</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.213107033356106</v>
+        <v>-1.05153625574595</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3731,54 +3731,54 @@
         <v>9</v>
       </c>
       <c r="P52" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q52" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R52" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S52" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.07434944237918215</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B53" t="n">
-        <v>49.6799226616699</v>
+        <v>267.2046303828154</v>
       </c>
       <c r="C53" t="n">
-        <v>451.6011442763126</v>
+        <v>5323.527576977344</v>
       </c>
       <c r="D53" t="n">
-        <v>4.257741111695048e-06</v>
+        <v>1.56549153373059e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001502777793380082</v>
+        <v>0.004228761549017398</v>
       </c>
       <c r="F53" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.1131239280071309</v>
+        <v>-0.2145838641521118</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4861977266460725</v>
+        <v>1.027987725990314</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9561578223968271</v>
+        <v>6.684649085958561</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.087758192444827</v>
+        <v>-1.389120621543819</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3794,54 +3794,54 @@
         <v>9</v>
       </c>
       <c r="P53" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q53" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R53" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S53" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B54" t="n">
-        <v>95.78129725910966</v>
+        <v>169.0867430350579</v>
       </c>
       <c r="C54" t="n">
-        <v>464.2931213213434</v>
+        <v>2246.670273269639</v>
       </c>
       <c r="D54" t="n">
-        <v>4.285252068562397e-06</v>
+        <v>1.266568696283004e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0009171929528995033</v>
+        <v>0.001421508465835277</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.08052682582393782</v>
+        <v>-0.1081965549151349</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6330364122455605</v>
+        <v>0.4599049126896847</v>
       </c>
       <c r="K54" t="n">
-        <v>1.391543618431412</v>
+        <v>1.82419855997178</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.9933693420231764</v>
+        <v>-0.8115228982563754</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
         <v>9</v>
       </c>
       <c r="P54" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q54" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R54" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S54" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="55">
@@ -3874,37 +3874,37 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>43.16761816194806</v>
+        <v>331.9536391616573</v>
       </c>
       <c r="C55" t="n">
-        <v>297.2466533944662</v>
+        <v>1885.399154129648</v>
       </c>
       <c r="D55" t="n">
-        <v>2.014685788179611e-06</v>
+        <v>1.472641325608621e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0005219992416274294</v>
+        <v>0.001904292040187973</v>
       </c>
       <c r="F55" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1604744169589148</v>
+        <v>-0.3260841249132194</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2748376956456215</v>
+        <v>0.2685131131976508</v>
       </c>
       <c r="K55" t="n">
-        <v>0.7586320209780315</v>
+        <v>0.4154546898636209</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.7571517187969755</v>
+        <v>-1.020987028163209</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>9</v>
       </c>
       <c r="P55" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q55" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R55" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S55" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="B56" t="n">
-        <v>140.085060387338</v>
+        <v>353.262128836695</v>
       </c>
       <c r="C56" t="n">
-        <v>632.297828168554</v>
+        <v>4645.964259289594</v>
       </c>
       <c r="D56" t="n">
-        <v>3.483231416831709e-07</v>
+        <v>1.257681391767854e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0003679293631181261</v>
+        <v>0.001872795730218872</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.052595458233142</v>
+        <v>-0.3230420403746521</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9546185548674716</v>
+        <v>0.9500165619935288</v>
       </c>
       <c r="K56" t="n">
-        <v>3.239207153278792</v>
+        <v>3.512457891236759</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.944624190707946</v>
+        <v>-2.241510938784275</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3983,54 +3983,54 @@
         <v>9</v>
       </c>
       <c r="P56" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q56" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R56" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S56" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B57" t="n">
-        <v>72.47962978740433</v>
+        <v>445.7999936304942</v>
       </c>
       <c r="C57" t="n">
-        <v>598.0659495896725</v>
+        <v>3789.454103919724</v>
       </c>
       <c r="D57" t="n">
-        <v>2.634846173369771e-06</v>
+        <v>9.955664760558639e-08</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001694436023530878</v>
+        <v>0.004280411951298855</v>
       </c>
       <c r="F57" t="n">
-        <v>1.2</v>
+        <v>43.7</v>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.1885136361389663</v>
+        <v>0.03673618298377054</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5224106305422251</v>
+        <v>0.9081686756832209</v>
       </c>
       <c r="K57" t="n">
-        <v>1.107217787345991</v>
+        <v>3.045880605626164</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.21881263453929</v>
+        <v>-1.433183362911471</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4046,54 +4046,54 @@
         <v>9</v>
       </c>
       <c r="P57" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q57" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R57" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S57" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.04911591355599214</v>
       </c>
       <c r="B58" t="n">
-        <v>139.1441465000312</v>
+        <v>183.9981424574311</v>
       </c>
       <c r="C58" t="n">
-        <v>605.1441877373304</v>
+        <v>3779.614701695297</v>
       </c>
       <c r="D58" t="n">
-        <v>4.796448296031072e-06</v>
+        <v>5.364221870823268e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001934396853150123</v>
+        <v>0.002390043957661356</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.09398805120396587</v>
+        <v>-0.1265628967850644</v>
       </c>
       <c r="J58" t="n">
-        <v>0.897498490885862</v>
+        <v>0.6613361557661193</v>
       </c>
       <c r="K58" t="n">
-        <v>2.44302629013494</v>
+        <v>1.79584144678185</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.499798182803224</v>
+        <v>-2.028374644647369</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4109,54 +4109,54 @@
         <v>9</v>
       </c>
       <c r="P58" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q58" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R58" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S58" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B59" t="n">
-        <v>111.0257452296914</v>
+        <v>466.1291550147373</v>
       </c>
       <c r="C59" t="n">
-        <v>785.0667742331635</v>
+        <v>5772.952236340407</v>
       </c>
       <c r="D59" t="n">
-        <v>1.04620614037863e-05</v>
+        <v>7.2147394353096e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0044120186008116</v>
+        <v>0.005540217514166676</v>
       </c>
       <c r="F59" t="n">
-        <v>24.5</v>
+        <v>53</v>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0.09130970945776273</v>
+        <v>0.2683592761953401</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9451899524295012</v>
+        <v>1.043954667648304</v>
       </c>
       <c r="K59" t="n">
-        <v>3.215667282452795</v>
+        <v>4.0759044596434</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.112157461484304</v>
+        <v>-1.494465641496514</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4172,54 +4172,54 @@
         <v>9</v>
       </c>
       <c r="P59" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q59" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R59" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S59" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.03717472118959107</v>
+        <v>0.01964636542239686</v>
       </c>
       <c r="B60" t="n">
-        <v>64.68961597521421</v>
+        <v>244.8051955230462</v>
       </c>
       <c r="C60" t="n">
-        <v>465.8403584087412</v>
+        <v>2736.539678269723</v>
       </c>
       <c r="D60" t="n">
-        <v>2.392980519959084e-07</v>
+        <v>9.620553917145021e-08</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0004731255482604586</v>
+        <v>0.001461393950140407</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02829771109315648</v>
+        <v>-0.1365765126848646</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5135719424670306</v>
+        <v>0.5576013920593401</v>
       </c>
       <c r="K60" t="n">
-        <v>1.005187372448626</v>
+        <v>2.229757802344567</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.907317515893736</v>
+        <v>-0.8247031681672585</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4235,54 +4235,54 @@
         <v>9</v>
       </c>
       <c r="P60" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q60" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R60" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S60" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>0.02946954813359529</v>
       </c>
       <c r="B61" t="n">
-        <v>123.24508474076</v>
+        <v>292.6000529593695</v>
       </c>
       <c r="C61" t="n">
-        <v>467.2624224464594</v>
+        <v>3817.404414069877</v>
       </c>
       <c r="D61" t="n">
-        <v>1.436269946896901e-06</v>
+        <v>4.9656237537845e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0008264558882187899</v>
+        <v>0.002436879926141375</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.4581601663225279</v>
+        <v>-0.07985981617452326</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4082100577438406</v>
+        <v>0.8510212295930386</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5135696146182095</v>
+        <v>2.323240987447873</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.424266645745544</v>
+        <v>-1.452663143074663</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4298,16 +4298,16 @@
         <v>9</v>
       </c>
       <c r="P61" t="n">
-        <v>1692</v>
+        <v>1982</v>
       </c>
       <c r="Q61" t="n">
-        <v>1960</v>
+        <v>2999</v>
       </c>
       <c r="R61" t="n">
-        <v>268</v>
+        <v>1017</v>
       </c>
       <c r="S61" t="n">
-        <v>269</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
